--- a/biology/Médecine/Arturo_Marcacci/Arturo_Marcacci.xlsx
+++ b/biology/Médecine/Arturo_Marcacci/Arturo_Marcacci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arturo Marcacci (né le 28 mars 1855 à Pise en Italie et décédé le 19 janvier 1915 à Pavie en Italie) est un physiologiste italien du XIXe siècle[1].
-Marcacci est célèbre pour avoir isolé le muscle aréolo-mamelonnaire[2]. Avant lui, deux muscles indépendants étaient décrits, l’un pour le mamelon et l’autre pour l’aréole. C’est pourquoi ce muscle est également appelé muscle de Marcacci.
-Marcacci a notamment été directeur de l’Institut de Physiologie de l’Université de Pérouse, où il a été le mentor de Ruggero Oddi lorsque ce dernier a découvert le sphincter d’Oddi, en utilisant la même méthode que celle qu’il avait utilisée pour isoler le muscle aréolaire[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arturo Marcacci (né le 28 mars 1855 à Pise en Italie et décédé le 19 janvier 1915 à Pavie en Italie) est un physiologiste italien du XIXe siècle.
+Marcacci est célèbre pour avoir isolé le muscle aréolo-mamelonnaire. Avant lui, deux muscles indépendants étaient décrits, l’un pour le mamelon et l’autre pour l’aréole. C’est pourquoi ce muscle est également appelé muscle de Marcacci.
+Marcacci a notamment été directeur de l’Institut de Physiologie de l’Université de Pérouse, où il a été le mentor de Ruggero Oddi lorsque ce dernier a découvert le sphincter d’Oddi, en utilisant la même méthode que celle qu’il avait utilisée pour isoler le muscle aréolaire.
 </t>
         </is>
       </c>
@@ -513,29 +525,31 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A. Marcacci, P. Bert. Comunicazione preventiva sulla distribuzione delle radici motrici nei muscoli degli arti, in ‘’Lo Sperimentale’’, tome XLVIII [1881], p. 356-358
-Arturo Marcacci. Studio della distribuzione delle radici motrici nei muscoli degli arti, in ‘’Giorn. internazionale delle scienze mediche’’, n.s., tome III [1881], p. 906-908
-Arturo Marcacci. Centri motori corticali [studio critico sperimentale], in ‘’Giorn. della R. Accademia di medicina di Torino’’, s. 3, tome XXX [1882], p. 31-62, 145-161, 167-259
-Arturo Marcacci. De l'excitabilité électrique des centres moteurs corticaux pendant l'anesthésie de l'écorce cérébrale, in ‘’Comptes-rendus hebdomadaires des séances et mémoires de la Société de biologie’’, s. 7, tome III [1882], p. 14-16
-Arturo Marcacci. Étude sur la distribution des racines motrices du plexus lombaire dans les muscles du membre inférieur, in ‘’Comptes-rendus hebdomadaires des séances et mémoires de la Société de biologie’’, tome III [1882], p. 267-269
-A. Marcacci, A. Dastre. La legge della ineccitabilità cardiaca, in ‘’Arch. per le scienze mediche’’, tome VI [1882], p. 21-28
-Arturo Marcacci. Influenza del ramus lingualis trigemini sulla formazione della linfa nella lingua, in ‘’Lo Sperimentale’’, tome LII [1883], p. 270-272;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A. Marcacci, P. Bert. Comunicazione preventiva sulla distribuzione delle radici motrici nei muscoli degli arti, in ‘’Lo Sperimentale’’, tome XLVIII , p. 356-358
+Arturo Marcacci. Studio della distribuzione delle radici motrici nei muscoli degli arti, in ‘’Giorn. internazionale delle scienze mediche’’, n.s., tome III , p. 906-908
+Arturo Marcacci. Centri motori corticali [studio critico sperimentale], in ‘’Giorn. della R. Accademia di medicina di Torino’’, s. 3, tome XXX , p. 31-62, 145-161, 167-259
+Arturo Marcacci. De l'excitabilité électrique des centres moteurs corticaux pendant l'anesthésie de l'écorce cérébrale, in ‘’Comptes-rendus hebdomadaires des séances et mémoires de la Société de biologie’’, s. 7, tome III , p. 14-16
+Arturo Marcacci. Étude sur la distribution des racines motrices du plexus lombaire dans les muscles du membre inférieur, in ‘’Comptes-rendus hebdomadaires des séances et mémoires de la Société de biologie’’, tome III , p. 267-269
+A. Marcacci, A. Dastre. La legge della ineccitabilità cardiaca, in ‘’Arch. per le scienze mediche’’, tome VI , p. 21-28
+Arturo Marcacci. Influenza del ramus lingualis trigemini sulla formazione della linfa nella lingua, in ‘’Lo Sperimentale’’, tome LII , p. 270-272;
 Arturo Marcacci. Influence du ramus lingualis trigemini sur la formation de la lymphe dans la langue, in ‘’Archives italiennes de biologie’’, tome IV [1883-84], p. 234-236
 Arturo Marcacci. Le muscle aréolo-mamelonnaire, in ‘’Archives italiennes de biologie’’, tome IV, fascicule III [1883-84], p. 292-299
-Arturo Marcacci. Le muscle aréolo-mamelonnaire, in ‘’Giorn. della R. Accademia di medicina di Torino’’, s. 3, tome XXXI [1883], p. 743-753
-Arturo Marcacci. Dell'azione fisiologica dell'apotropina, in ‘’Giorn. della R. Accademia di medicina di Torino’’, s. 3, tome XXXII [1884], p. 193-256
+Arturo Marcacci. Le muscle aréolo-mamelonnaire, in ‘’Giorn. della R. Accademia di medicina di Torino’’, s. 3, tome XXXI , p. 743-753
+Arturo Marcacci. Dell'azione fisiologica dell'apotropina, in ‘’Giorn. della R. Accademia di medicina di Torino’’, s. 3, tome XXXII , p. 193-256
 Arturo Marcacci. Dell'influenza che esercita il movimento sullo sviluppo dell'uovo, in ‘’Annali dell'Università libera di Perugia. Facoltà di medicina e chirurgia’’, tome I [1885-86], p. 171-190
-Arturo Marcacci. Influenza del movimento sullo sviluppo dell'uovo, Perugia [1886]
-Arturo Marcacci. Sull'azione fisiologica della cinconamina, in ‘’Medicina contemporanea’’, tome IV [1887], p. 337-358, 393-402
+Arturo Marcacci. Influenza del movimento sullo sviluppo dell'uovo, Perugia 
+Arturo Marcacci. Sull'azione fisiologica della cinconamina, in ‘’Medicina contemporanea’’, tome IV , p. 337-358, 393-402
 Arturo Marcacci. L'azione degli alcaloidi nel regno vegetale e animale, in ‘’Annali della Università libera di Perugia. Facoltà medico-chirurgica’’, tome III [1887-88], p. 3-74
-Arturo Marcacci. Effetti tardivi del movimento impresso alle uova nei primi giorni dell'incubazione; seconda nota, in ‘’Bull. delle scienze mediche’’, s. 6, tome XXII [1888], p. 5-29
-Arturo Marcacci. La digestione dell'amido nei semi e nelle foglie, in ‘’Atti e rendiconti dell'Accademia medico-chirurgica di Perugia’’, tome I [1889], p. 32-38
-Arturo Marcacci. La formazione e la trasformazione degli idrati di carbonio nelle piante e negli animali, in ‘’Atti della Soc. toscana di scienze naturali residente in Pisa’’. Memorie, tome XI [1891], p. 311-423
-Arturo Marcacci. Sull'ossido di carbonio considerato dal punto di vista farmacologico, in ‘’Arch. di farmacologia e terapia’’, tome I [1893], p. 65-73
-Arturo Marcacci. Il meccanismo della morte nell'avvelenamento per ossido di carbonio, in ‘’Atti della Soc. toscana di scienze naturali residente in Pisa’’. Memorie, tome XII [1893], p. 222-255
-Arturo Marcacci. L'asfissia negli animali a sangue freddo, in ‘’Atti della Soc. toscana di scienze naturali residente in Pisa’’. Memorie, tome XIII [1894], p. 322-356
+Arturo Marcacci. Effetti tardivi del movimento impresso alle uova nei primi giorni dell'incubazione; seconda nota, in ‘’Bull. delle scienze mediche’’, s. 6, tome XXII , p. 5-29
+Arturo Marcacci. La digestione dell'amido nei semi e nelle foglie, in ‘’Atti e rendiconti dell'Accademia medico-chirurgica di Perugia’’, tome I , p. 32-38
+Arturo Marcacci. La formazione e la trasformazione degli idrati di carbonio nelle piante e negli animali, in ‘’Atti della Soc. toscana di scienze naturali residente in Pisa’’. Memorie, tome XI , p. 311-423
+Arturo Marcacci. Sull'ossido di carbonio considerato dal punto di vista farmacologico, in ‘’Arch. di farmacologia e terapia’’, tome I , p. 65-73
+Arturo Marcacci. Il meccanismo della morte nell'avvelenamento per ossido di carbonio, in ‘’Atti della Soc. toscana di scienze naturali residente in Pisa’’. Memorie, tome XII , p. 222-255
+Arturo Marcacci. L'asfissia negli animali a sangue freddo, in ‘’Atti della Soc. toscana di scienze naturali residente in Pisa’’. Memorie, tome XIII , p. 322-356
 Arturo Marcacci. Sarebbe possibile la vita nell'aria atmosferica quando l'azoto fosse sostituito dall'idrogeno?, in ‘’Memorie del R. Ist. lombardo di scienze e lettere’’, cl. di scienze matematiche e naturali, tome XIX [1900-04], p. 229-254</t>
         </is>
       </c>
